--- a/dados/outputProbabilidadesPorEtapa.xlsx
+++ b/dados/outputProbabilidadesPorEtapa.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1536999999999999</v>
+        <v>0.1563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2779</v>
+        <v>0.2814</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2215</v>
+        <v>0.2154</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1295</v>
+        <v>0.1336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0882</v>
+        <v>0.0842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1292</v>
+        <v>0.1291</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1662</v>
+        <v>0.1655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2857999999999999</v>
+        <v>0.2933</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208</v>
+        <v>0.2012</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1309</v>
+        <v>0.1344</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08050000000000002</v>
+        <v>0.08180000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1286</v>
+        <v>0.1238</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1816</v>
+        <v>0.1786</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3301</v>
+        <v>0.3271</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1894</v>
+        <v>0.1899</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1331</v>
+        <v>0.1317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.0741</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0905</v>
+        <v>0.09859999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1917</v>
+        <v>0.1801</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3173</v>
+        <v>0.3316999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1914</v>
+        <v>0.1912</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1386</v>
+        <v>0.1347</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07290000000000001</v>
+        <v>0.0733</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0881</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2917999999999999</v>
+        <v>0.2852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2529000000000001</v>
+        <v>0.2478</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2102</v>
+        <v>0.2127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1134</v>
+        <v>0.1118</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06190000000000001</v>
+        <v>0.06719999999999998</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0698</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2644</v>
+        <v>0.2704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3302</v>
+        <v>0.3296</v>
       </c>
       <c r="D7" t="n">
-        <v>0.185</v>
+        <v>0.1821</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1021</v>
+        <v>0.1055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0578</v>
+        <v>0.0551</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0605</v>
+        <v>0.0573</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1822</v>
+        <v>0.1721</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3701</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2255</v>
+        <v>0.2209</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1144</v>
+        <v>0.1152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0539</v>
+        <v>0.0597</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0539</v>
+        <v>0.0521</v>
       </c>
     </row>
     <row r="9">
@@ -652,22 +652,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2117</v>
+        <v>0.219</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3755</v>
+        <v>0.3822</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.1967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1043</v>
+        <v>0.0994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0552</v>
+        <v>0.0513</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0533</v>
+        <v>0.0514</v>
       </c>
     </row>
     <row r="10">
@@ -677,97 +677,97 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3105</v>
+        <v>0.3129</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3374</v>
+        <v>0.3338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1684</v>
+        <v>0.1647</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0956</v>
+        <v>0.09399999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0462</v>
+        <v>0.05230000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0419</v>
+        <v>0.0423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alemanha</t>
+          <t>México</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3584000000000001</v>
+        <v>0.3296</v>
       </c>
       <c r="C11" t="n">
-        <v>0.323</v>
+        <v>0.3374</v>
       </c>
       <c r="D11" t="n">
-        <v>0.16</v>
+        <v>0.1612</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07919999999999999</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0424</v>
+        <v>0.0414</v>
       </c>
       <c r="G11" t="n">
-        <v>0.037</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.328</v>
+        <v>0.2817</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3386000000000001</v>
+        <v>0.3723000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1604</v>
+        <v>0.1858</v>
       </c>
       <c r="E12" t="n">
-        <v>0.09599999999999999</v>
+        <v>0.0839</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0414</v>
+        <v>0.04120000000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0356</v>
+        <v>0.0351</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Alemanha</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2723</v>
+        <v>0.3559</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3782</v>
+        <v>0.3183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1878</v>
+        <v>0.1643</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0791</v>
+        <v>0.08760000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.04880000000000001</v>
+        <v>0.04109999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0338</v>
+        <v>0.0328</v>
       </c>
     </row>
     <row r="14">
@@ -777,72 +777,72 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4188</v>
+        <v>0.4181</v>
       </c>
       <c r="C14" t="n">
-        <v>0.294</v>
+        <v>0.2953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1512</v>
+        <v>0.1498</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0694</v>
+        <v>0.0728</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03720000000000001</v>
+        <v>0.0357</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0294</v>
+        <v>0.0283</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Estados Unidos</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4261</v>
+        <v>0.465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2862</v>
+        <v>0.2384000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1587</v>
+        <v>0.1559</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0684</v>
+        <v>0.07459999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0339</v>
+        <v>0.03910000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0267</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Estados Unidos</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4651999999999999</v>
+        <v>0.4379999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2408000000000001</v>
+        <v>0.2769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1584</v>
+        <v>0.1596</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0775</v>
+        <v>0.0675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0323</v>
+        <v>0.0314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0258</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="17">
@@ -852,22 +852,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3108</v>
+        <v>0.3204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3794</v>
+        <v>0.3772</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1757</v>
+        <v>0.18</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0798</v>
+        <v>0.06889999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>0.033</v>
+        <v>0.0316</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0213</v>
+        <v>0.0219</v>
       </c>
     </row>
     <row r="18">
@@ -877,72 +877,72 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5997</v>
+        <v>0.5967</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2066</v>
+        <v>0.2023</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1134</v>
+        <v>0.1188</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0498</v>
+        <v>0.05139999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0193</v>
+        <v>0.0181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0112</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Irã</t>
+          <t>Marrocos</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.6433</v>
+        <v>0.5952999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>0.186</v>
+        <v>0.2347</v>
       </c>
       <c r="D19" t="n">
-        <v>0.105</v>
+        <v>0.09970000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0392</v>
+        <v>0.0416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0161</v>
+        <v>0.0185</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0104</v>
+        <v>0.0102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Marrocos</t>
+          <t>Japão</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.589</v>
+        <v>0.6163000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2445</v>
+        <v>0.235</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1008</v>
+        <v>0.08879999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0386</v>
+        <v>0.0384</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0168</v>
+        <v>0.0132</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0103</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="21">
@@ -952,47 +952,47 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6188</v>
+        <v>0.6065</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2221</v>
+        <v>0.226</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1014</v>
+        <v>0.1034</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0367</v>
+        <v>0.04090000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0126</v>
+        <v>0.0153</v>
       </c>
       <c r="G21" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.007900000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Japão</t>
+          <t>Irã</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6158</v>
+        <v>0.6531</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2377</v>
+        <v>0.1885</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08609999999999998</v>
+        <v>0.1003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0373</v>
+        <v>0.0357</v>
       </c>
       <c r="F22" t="n">
-        <v>0.015</v>
+        <v>0.0148</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0081</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="23">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6059</v>
+        <v>0.6069</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2415</v>
+        <v>0.2389</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08720000000000001</v>
+        <v>0.09230000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0415</v>
+        <v>0.03849999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0161</v>
+        <v>0.0158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0078</v>
+        <v>0.0076</v>
       </c>
     </row>
     <row r="24">
@@ -1027,22 +1027,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5740000000000001</v>
+        <v>0.5594</v>
       </c>
       <c r="C24" t="n">
-        <v>0.276</v>
+        <v>0.2754</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09759999999999999</v>
+        <v>0.1095</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0328</v>
+        <v>0.0341</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0136</v>
+        <v>0.0155</v>
       </c>
       <c r="G24" t="n">
-        <v>0.006</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="25">
@@ -1052,22 +1052,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7193000000000001</v>
+        <v>0.7216</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1879</v>
+        <v>0.193</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05759999999999999</v>
+        <v>0.0547</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0244</v>
+        <v>0.0204</v>
       </c>
       <c r="F25" t="n">
-        <v>0.007200000000000001</v>
+        <v>0.006500000000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0036</v>
+        <v>0.0038</v>
       </c>
     </row>
     <row r="26">
@@ -1077,72 +1077,72 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7614</v>
+        <v>0.7574</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1654</v>
+        <v>0.1667</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0499</v>
+        <v>0.0528</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0165</v>
+        <v>0.0161</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0048</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002</v>
+        <v>0.0025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Austrália</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.8260000000000001</v>
+        <v>0.7854</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1194</v>
+        <v>0.1487</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0378</v>
+        <v>0.0426</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0119</v>
+        <v>0.017</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0032</v>
+        <v>0.004500000000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0017</v>
+        <v>0.0018</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Austrália</t>
+          <t>Equador</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.7785</v>
+        <v>0.7192000000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1551</v>
+        <v>0.2049</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0453</v>
+        <v>0.0576</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0146</v>
+        <v>0.0138</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0049</v>
+        <v>0.0028</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0016</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="29">
@@ -1152,69 +1152,69 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.8014</v>
+        <v>0.7992</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1334</v>
+        <v>0.136</v>
       </c>
       <c r="D29" t="n">
-        <v>0.04819999999999999</v>
+        <v>0.0449</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0126</v>
+        <v>0.014</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0033</v>
+        <v>0.0043</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Catar</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.7903</v>
+        <v>0.8210999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1592</v>
+        <v>0.1271</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0371</v>
+        <v>0.0368</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0102</v>
+        <v>0.0115</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0021</v>
+        <v>0.0025</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Equador</t>
+          <t>Catar</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.7167</v>
+        <v>0.7883</v>
       </c>
       <c r="C31" t="n">
-        <v>0.205</v>
+        <v>0.1609</v>
       </c>
       <c r="D31" t="n">
-        <v>0.05819999999999999</v>
+        <v>0.0395</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0156</v>
+        <v>0.0095</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0038</v>
+        <v>0.0011</v>
       </c>
       <c r="G31" t="n">
         <v>0.0007</v>
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.8845</v>
+        <v>0.8849</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0921</v>
+        <v>0.08939999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0168</v>
+        <v>0.0177</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0057</v>
+        <v>0.006</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0003</v>
+        <v>0.0018</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="33">
@@ -1252,19 +1252,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9399</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0507</v>
+        <v>0.0498</v>
       </c>
       <c r="D33" t="n">
-        <v>0.006</v>
+        <v>0.0092</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0013</v>
+        <v>0.0008000000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
